--- a/Plan/Meilensteintrendanalyse.xlsx
+++ b/Plan/Meilensteintrendanalyse.xlsx
@@ -5,20 +5,31 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\OneDrive\Desktop\SYP-Projekt\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1626D173-482E-4029-B832-CFCB311FA201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E5A382-A66B-4D35-9A3D-386C48634728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MTA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -224,7 +235,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -251,6 +262,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -998,7 +1010,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1665,10 +1676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:T10"/>
+  <dimension ref="B2:T11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1953,6 +1964,9 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
     </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="E11" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:B3"/>

--- a/Plan/Meilensteintrendanalyse.xlsx
+++ b/Plan/Meilensteintrendanalyse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\OneDrive\Desktop\SYP-Projekt\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FE58A6-5666-43AF-8291-D2F8A45D8F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E5763D-71C1-4AAC-9281-9DD90EE6FDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14DC5C8D-CF8B-47DD-B602-BCCBE3CB0C77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{14DC5C8D-CF8B-47DD-B602-BCCBE3CB0C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>Inventarsystem</t>
   </si>
   <si>
-    <t>Assets</t>
-  </si>
-  <si>
     <t>Datenbank</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>Linie</t>
+  </si>
+  <si>
+    <t>Blender</t>
   </si>
 </sst>
 </file>
@@ -175,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -379,11 +379,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF6B7280"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -410,9 +423,20 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -445,19 +469,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -635,6 +650,9 @@
                 <c:pt idx="1">
                   <c:v>45016</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>44988</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1026,6 +1044,9 @@
                 <c:pt idx="1">
                   <c:v>45065</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>44988</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1045,7 +1066,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Assets</c:v>
+                  <c:v>Blender</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1158,10 +1179,13 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>45065</c:v>
+                  <c:v>45064</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45065</c:v>
+                  <c:v>45064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1294,6 +1318,9 @@
                 <c:pt idx="1">
                   <c:v>45084</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>45079</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1552,6 +1579,48 @@
                   <c:v>45086</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>45086</c:v>
                 </c:pt>
               </c:numCache>
@@ -2974,87 +3043,87 @@
   <dimension ref="A1:ER569"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="13" max="26" width="11.5546875" style="1"/>
+    <col min="13" max="26" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:148" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+    <row r="1" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:148" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="2:148" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+    <row r="3" spans="2:148" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="25" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="2:148" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+    <row r="4" spans="2:148" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28">
+      <c r="C4" s="32"/>
+      <c r="D4" s="33">
         <v>44986</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:148" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:148" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
     </row>
-    <row r="8" spans="2:148" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:148" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>0</v>
       </c>
@@ -3067,49 +3136,49 @@
       <c r="E8" s="14">
         <v>44974</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>44981</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="18">
         <v>44988</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="18">
         <v>44995</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="18">
         <v>45002</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="18">
         <v>45009</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="18">
         <v>45016</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="18">
         <v>45023</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="18">
         <v>45030</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="18">
         <v>45037</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="18">
         <v>45044</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="18">
         <v>45051</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q8" s="18">
         <v>45058</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R8" s="18">
         <v>45065</v>
       </c>
-      <c r="S8" s="19">
+      <c r="S8" s="18">
         <v>45072</v>
       </c>
-      <c r="T8" s="19">
+      <c r="T8" s="18">
         <v>45079</v>
       </c>
       <c r="U8" s="15">
@@ -3238,7 +3307,7 @@
       <c r="EQ8" s="1"/>
       <c r="ER8" s="1"/>
     </row>
-    <row r="9" spans="2:148" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:148" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>2</v>
       </c>
@@ -3251,24 +3320,26 @@
       <c r="E9" s="11">
         <v>45016</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <v>45016</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="13"/>
+      <c r="G9" s="36">
+        <v>44988</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="39"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
@@ -3392,7 +3463,7 @@
       <c r="EQ9" s="1"/>
       <c r="ER9" s="1"/>
     </row>
-    <row r="10" spans="2:148" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:148" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>3</v>
       </c>
@@ -3546,7 +3617,7 @@
       <c r="EQ10" s="1"/>
       <c r="ER10" s="1"/>
     </row>
-    <row r="11" spans="2:148" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:148" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>4</v>
       </c>
@@ -3700,7 +3771,7 @@
       <c r="EQ11" s="1"/>
       <c r="ER11" s="1"/>
     </row>
-    <row r="12" spans="2:148" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:148" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>5</v>
       </c>
@@ -3716,21 +3787,23 @@
       <c r="F12" s="11">
         <v>45065</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="13"/>
+      <c r="G12" s="36">
+        <v>44988</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="37"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
@@ -3854,23 +3927,25 @@
       <c r="EQ12" s="1"/>
       <c r="ER12" s="1"/>
     </row>
-    <row r="13" spans="2:148" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:148" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D13" s="11">
         <v>45065</v>
       </c>
       <c r="E13" s="11">
-        <v>45065</v>
+        <v>45064</v>
       </c>
       <c r="F13" s="11">
-        <v>45065</v>
-      </c>
-      <c r="G13" s="12"/>
+        <v>45064</v>
+      </c>
+      <c r="G13" s="12">
+        <v>45064</v>
+      </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -4008,12 +4083,12 @@
       <c r="EQ13" s="1"/>
       <c r="ER13" s="1"/>
     </row>
-    <row r="14" spans="2:148" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:148" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="11">
         <v>45084</v>
@@ -4024,7 +4099,9 @@
       <c r="F14" s="11">
         <v>45084</v>
       </c>
-      <c r="G14" s="12"/>
+      <c r="G14" s="12">
+        <v>45079</v>
+      </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -4162,12 +4239,12 @@
       <c r="EQ14" s="1"/>
       <c r="ER14" s="1"/>
     </row>
-    <row r="15" spans="2:148" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:148" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="11">
         <v>45079</v>
@@ -4316,37 +4393,67 @@
       <c r="EQ15" s="1"/>
       <c r="ER15" s="1"/>
     </row>
-    <row r="16" spans="2:148" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:148" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="20">
         <v>45086</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="20">
         <v>45086</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="20">
         <v>45086</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="33"/>
+      <c r="G16" s="21">
+        <v>45086</v>
+      </c>
+      <c r="H16" s="20">
+        <v>45086</v>
+      </c>
+      <c r="I16" s="20">
+        <v>45086</v>
+      </c>
+      <c r="J16" s="21">
+        <v>45086</v>
+      </c>
+      <c r="K16" s="20">
+        <v>45086</v>
+      </c>
+      <c r="L16" s="20">
+        <v>45086</v>
+      </c>
+      <c r="M16" s="21">
+        <v>45086</v>
+      </c>
+      <c r="N16" s="21">
+        <v>45086</v>
+      </c>
+      <c r="O16" s="20">
+        <v>45086</v>
+      </c>
+      <c r="P16" s="20">
+        <v>45086</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>45086</v>
+      </c>
+      <c r="R16" s="20">
+        <v>45086</v>
+      </c>
+      <c r="S16" s="20">
+        <v>45086</v>
+      </c>
+      <c r="T16" s="21">
+        <v>45086</v>
+      </c>
+      <c r="U16" s="38">
+        <v>45086</v>
+      </c>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
@@ -4470,61 +4577,61 @@
       <c r="EQ16" s="1"/>
       <c r="ER16" s="1"/>
     </row>
-    <row r="17" spans="2:148" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:148" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="34">
+      <c r="D17" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="22">
         <v>44974</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="23">
         <v>44981</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="23">
         <v>44988</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="23">
         <v>44995</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="23">
         <v>45002</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="23">
         <v>45009</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="23">
         <v>45016</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="23">
         <v>45023</v>
       </c>
-      <c r="M17" s="35">
+      <c r="M17" s="23">
         <v>45030</v>
       </c>
-      <c r="N17" s="35">
+      <c r="N17" s="23">
         <v>45037</v>
       </c>
-      <c r="O17" s="35">
+      <c r="O17" s="23">
         <v>45044</v>
       </c>
-      <c r="P17" s="35">
+      <c r="P17" s="23">
         <v>45051</v>
       </c>
-      <c r="Q17" s="35">
+      <c r="Q17" s="23">
         <v>45058</v>
       </c>
-      <c r="R17" s="35">
+      <c r="R17" s="23">
         <v>45065</v>
       </c>
-      <c r="S17" s="35">
+      <c r="S17" s="23">
         <v>45072</v>
       </c>
-      <c r="T17" s="35">
+      <c r="T17" s="23">
         <v>45079</v>
       </c>
-      <c r="U17" s="36">
+      <c r="U17" s="24">
         <v>45086</v>
       </c>
       <c r="AA17" s="1"/>
@@ -4650,7 +4757,7 @@
       <c r="EQ17" s="1"/>
       <c r="ER17" s="1"/>
     </row>
-    <row r="18" spans="2:148" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:148" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="8"/>
@@ -4785,7 +4892,7 @@
       <c r="EQ18" s="1"/>
       <c r="ER18" s="1"/>
     </row>
-    <row r="19" spans="2:148" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:148" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="8"/>
@@ -4920,556 +5027,556 @@
       <c r="EQ19" s="1"/>
       <c r="ER19" s="1"/>
     </row>
-    <row r="20" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="406" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="407" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="408" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="409" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="410" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="411" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="412" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="413" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="414" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="415" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="416" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="417" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="418" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="419" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="420" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="421" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="422" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="423" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="424" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="425" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="426" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="427" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="428" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="429" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="430" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="431" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="432" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="433" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="434" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="435" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="436" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="437" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="438" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="439" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="440" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="441" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="442" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="443" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="444" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="445" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="446" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="447" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="448" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="449" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="450" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="451" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="452" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="453" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="454" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="455" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="456" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="457" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="458" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="459" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="460" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="461" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="462" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="463" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="464" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="465" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="466" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="467" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="468" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="469" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="470" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="471" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="472" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="473" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="474" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="475" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="476" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="477" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="478" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="479" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="480" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="481" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="482" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="483" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="484" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="485" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="486" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="487" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="488" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="489" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="490" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="491" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="492" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="493" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="494" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="495" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="496" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="497" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="498" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="499" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="500" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="501" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="502" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="503" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="504" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="505" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="506" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="507" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="508" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="509" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="510" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="511" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="512" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="513" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="514" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="515" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="516" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="517" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="518" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="519" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="520" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="521" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="522" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="523" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="524" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="525" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="526" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="527" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="528" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="529" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="530" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="531" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="532" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="533" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="534" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="535" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="536" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="537" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="538" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="539" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="540" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="541" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="542" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="543" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="544" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="545" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="546" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="547" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="548" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="549" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="550" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="551" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="552" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="553" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="554" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="555" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="556" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="557" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="558" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="559" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="560" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="561" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="562" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="563" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="564" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="565" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="566" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="567" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="568" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="569" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="406" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="407" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="408" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="409" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="410" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="411" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="412" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="413" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="414" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="415" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="416" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="417" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="418" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="419" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="420" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="421" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="422" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="423" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="424" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="425" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="426" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="427" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="428" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="429" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="430" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="431" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="432" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="433" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="434" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="435" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="436" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="437" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="438" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="439" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="440" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="441" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="442" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="443" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="444" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="445" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="446" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="447" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="448" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="449" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="450" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="451" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="452" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="453" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="454" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="455" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="456" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="457" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="458" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="459" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="460" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="461" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="462" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="463" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="464" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="465" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="466" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="467" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="468" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="469" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="470" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="471" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="472" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="473" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="474" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="475" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="476" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="477" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="478" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="479" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="480" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="481" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="482" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="483" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="484" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="485" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="486" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="487" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="488" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="489" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="490" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="491" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="492" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="493" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="494" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="495" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="496" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="497" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="498" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="499" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="500" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="501" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="502" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="503" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="504" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="505" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="506" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="507" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="508" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="509" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="510" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="511" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="512" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="513" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="514" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="515" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="516" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="517" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="518" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="519" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="520" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="521" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="522" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="523" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="524" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="525" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="526" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="527" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="528" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="529" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="530" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="531" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="532" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="533" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="534" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="535" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="536" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="537" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="538" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="539" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="540" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="541" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="542" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="543" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="544" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="545" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="546" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="547" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="548" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="549" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="550" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="551" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="552" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="553" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="554" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="555" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="556" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="557" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="558" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="559" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="560" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="561" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="562" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="563" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="564" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="565" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="566" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="567" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="568" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="569" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="E7:U7"/>

--- a/Plan/Meilensteintrendanalyse.xlsx
+++ b/Plan/Meilensteintrendanalyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\OneDrive\Desktop\SYP-Projekt\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E5763D-71C1-4AAC-9281-9DD90EE6FDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB95F17-540E-47A9-87F3-0365D036BC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{14DC5C8D-CF8B-47DD-B602-BCCBE3CB0C77}"/>
   </bookViews>
@@ -439,6 +439,10 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -469,10 +473,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -784,6 +784,9 @@
                 <c:pt idx="1">
                   <c:v>45072</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>45009</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -911,6 +914,9 @@
                   <c:v>45023</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>45023</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45023</c:v>
                 </c:pt>
               </c:numCache>
@@ -1450,6 +1456,9 @@
                   <c:v>45079</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>45079</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45079</c:v>
                 </c:pt>
               </c:numCache>
@@ -3043,7 +3052,7 @@
   <dimension ref="A1:ER569"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3058,39 +3067,39 @@
   <sheetData>
     <row r="1" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:148" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="2:148" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="2:148" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33">
+      <c r="C4" s="36"/>
+      <c r="D4" s="37">
         <v>44986</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3103,25 +3112,25 @@
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
     </row>
     <row r="8" spans="2:148" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
@@ -3323,23 +3332,23 @@
       <c r="F9" s="19">
         <v>45016</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="26">
         <v>44988</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="39"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="29"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
@@ -3479,7 +3488,9 @@
       <c r="F10" s="11">
         <v>45072</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="12">
+        <v>45009</v>
+      </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -3633,7 +3644,9 @@
       <c r="F11" s="11">
         <v>45023</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="12">
+        <v>45023</v>
+      </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -3787,23 +3800,23 @@
       <c r="F12" s="11">
         <v>45065</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="26">
         <v>44988</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="37"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="27"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
@@ -4255,7 +4268,9 @@
       <c r="F15" s="11">
         <v>45079</v>
       </c>
-      <c r="G15" s="12"/>
+      <c r="G15" s="12">
+        <v>45079</v>
+      </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -4451,7 +4466,7 @@
       <c r="T16" s="21">
         <v>45086</v>
       </c>
-      <c r="U16" s="38">
+      <c r="U16" s="28">
         <v>45086</v>
       </c>
       <c r="AA16" s="1"/>

--- a/Plan/Meilensteintrendanalyse.xlsx
+++ b/Plan/Meilensteintrendanalyse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\OneDrive\Desktop\SYP-Projekt\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB95F17-540E-47A9-87F3-0365D036BC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24C6CC2-67A8-43FF-B3B2-6604B6323E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{14DC5C8D-CF8B-47DD-B602-BCCBE3CB0C77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14DC5C8D-CF8B-47DD-B602-BCCBE3CB0C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -332,17 +332,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF6B7280"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -379,24 +368,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF6B7280"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -410,39 +386,17 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -473,6 +427,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -540,7 +500,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Menü</c:v>
+                  <c:v>Projektende</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -645,13 +605,52 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>45016</c:v>
+                  <c:v>45086</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45016</c:v>
+                  <c:v>45086</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44988</c:v>
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45086</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -672,7 +671,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>KI</c:v>
+                  <c:v>Story</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -779,13 +778,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>45072</c:v>
+                  <c:v>45079</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45072</c:v>
+                  <c:v>45079</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45009</c:v>
+                  <c:v>45079</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -806,7 +808,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Spielkarte</c:v>
+                  <c:v>Datenbank</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -911,13 +913,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>45023</c:v>
+                  <c:v>45084</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45023</c:v>
+                  <c:v>45084</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45023</c:v>
+                  <c:v>45079</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -938,7 +943,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Inventarsystem</c:v>
+                  <c:v>Blender</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1045,13 +1050,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>45065</c:v>
+                  <c:v>45064</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45065</c:v>
+                  <c:v>45064</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44988</c:v>
+                  <c:v>45064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1072,7 +1080,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Blender</c:v>
+                  <c:v>Inventarsystem</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1185,13 +1193,13 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>45064</c:v>
+                  <c:v>45065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45064</c:v>
+                  <c:v>45065</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45064</c:v>
+                  <c:v>44988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,7 +1220,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Datenbank</c:v>
+                  <c:v>Spielkarte</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1319,13 +1327,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>45084</c:v>
+                  <c:v>45023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45084</c:v>
+                  <c:v>45023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45079</c:v>
+                  <c:v>45023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1346,7 +1357,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Story</c:v>
+                  <c:v>KI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1453,13 +1464,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>45079</c:v>
+                  <c:v>45072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45079</c:v>
+                  <c:v>45072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45079</c:v>
+                  <c:v>45009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1480,7 +1494,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Projektende</c:v>
+                  <c:v>Menü</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1585,52 +1599,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>45086</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45086</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45086</c:v>
+                  <c:v>45002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45086</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45086</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45086</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45086</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45086</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45086</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45086</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45086</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45086</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45086</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45086</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45086</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45086</c:v>
+                  <c:v>44995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3051,146 +3029,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E987CCEC-9AC0-4624-BA71-63A51E28732F}">
   <dimension ref="A1:ER569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="11.5546875" style="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="13" max="26" width="11.5703125" style="1"/>
+    <col min="13" max="26" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:148" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+    <row r="1" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:148" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="2:148" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+    <row r="3" spans="2:148" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="2:148" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+    <row r="4" spans="2:148" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37">
+      <c r="C4" s="24"/>
+      <c r="D4" s="25">
         <v>44986</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:148" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:148" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
     </row>
-    <row r="8" spans="2:148" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+    <row r="8" spans="2:148" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="9">
         <v>44974</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="13">
         <v>44981</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="13">
         <v>44988</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="13">
         <v>44995</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="13">
         <v>45002</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="13">
         <v>45009</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="13">
         <v>45016</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="13">
         <v>45023</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="13">
         <v>45030</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="13">
         <v>45037</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="13">
         <v>45044</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="13">
         <v>45051</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="13">
         <v>45058</v>
       </c>
-      <c r="R8" s="18">
+      <c r="R8" s="13">
         <v>45065</v>
       </c>
-      <c r="S8" s="18">
+      <c r="S8" s="13">
         <v>45072</v>
       </c>
-      <c r="T8" s="18">
+      <c r="T8" s="13">
         <v>45079</v>
       </c>
-      <c r="U8" s="15">
+      <c r="U8" s="10">
         <v>45086</v>
       </c>
       <c r="AA8" s="1"/>
@@ -3316,39 +3294,67 @@
       <c r="EQ8" s="1"/>
       <c r="ER8" s="1"/>
     </row>
-    <row r="9" spans="2:148" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="2:148" x14ac:dyDescent="0.3">
+      <c r="B9" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="11">
-        <v>45016</v>
-      </c>
-      <c r="E9" s="11">
-        <v>45016</v>
-      </c>
-      <c r="F9" s="19">
-        <v>45016</v>
-      </c>
-      <c r="G9" s="26">
-        <v>44988</v>
-      </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="29"/>
+      <c r="C9" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="30">
+        <v>45086</v>
+      </c>
+      <c r="E9" s="30">
+        <v>45086</v>
+      </c>
+      <c r="F9" s="30">
+        <v>45086</v>
+      </c>
+      <c r="G9" s="30">
+        <v>45086</v>
+      </c>
+      <c r="H9" s="30">
+        <v>45086</v>
+      </c>
+      <c r="I9" s="30">
+        <v>45086</v>
+      </c>
+      <c r="J9" s="30">
+        <v>45086</v>
+      </c>
+      <c r="K9" s="30">
+        <v>45086</v>
+      </c>
+      <c r="L9" s="30">
+        <v>45086</v>
+      </c>
+      <c r="M9" s="30">
+        <v>45086</v>
+      </c>
+      <c r="N9" s="30">
+        <v>45086</v>
+      </c>
+      <c r="O9" s="30">
+        <v>45086</v>
+      </c>
+      <c r="P9" s="30">
+        <v>45086</v>
+      </c>
+      <c r="Q9" s="30">
+        <v>45086</v>
+      </c>
+      <c r="R9" s="30">
+        <v>45086</v>
+      </c>
+      <c r="S9" s="30">
+        <v>45086</v>
+      </c>
+      <c r="T9" s="30">
+        <v>45086</v>
+      </c>
+      <c r="U9" s="31">
+        <v>45086</v>
+      </c>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
@@ -3472,39 +3478,41 @@
       <c r="EQ9" s="1"/>
       <c r="ER9" s="1"/>
     </row>
-    <row r="10" spans="2:148" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="2:148" x14ac:dyDescent="0.3">
+      <c r="B10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="11">
-        <v>45072</v>
-      </c>
-      <c r="E10" s="11">
-        <v>45072</v>
-      </c>
-      <c r="F10" s="11">
-        <v>45072</v>
-      </c>
-      <c r="G10" s="12">
-        <v>45009</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="13"/>
+      <c r="C10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="30">
+        <v>45079</v>
+      </c>
+      <c r="E10" s="30">
+        <v>45079</v>
+      </c>
+      <c r="F10" s="30">
+        <v>45079</v>
+      </c>
+      <c r="G10" s="30">
+        <v>45079</v>
+      </c>
+      <c r="H10" s="30">
+        <v>45079</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="31"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
@@ -3628,39 +3636,41 @@
       <c r="EQ10" s="1"/>
       <c r="ER10" s="1"/>
     </row>
-    <row r="11" spans="2:148" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="2:148" x14ac:dyDescent="0.3">
+      <c r="B11" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="11">
-        <v>45023</v>
-      </c>
-      <c r="E11" s="11">
-        <v>45023</v>
-      </c>
-      <c r="F11" s="11">
-        <v>45023</v>
-      </c>
-      <c r="G11" s="12">
-        <v>45023</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="13"/>
+      <c r="C11" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="30">
+        <v>45084</v>
+      </c>
+      <c r="E11" s="30">
+        <v>45084</v>
+      </c>
+      <c r="F11" s="30">
+        <v>45084</v>
+      </c>
+      <c r="G11" s="30">
+        <v>45079</v>
+      </c>
+      <c r="H11" s="30">
+        <v>45079</v>
+      </c>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="31"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
@@ -3784,39 +3794,41 @@
       <c r="EQ11" s="1"/>
       <c r="ER11" s="1"/>
     </row>
-    <row r="12" spans="2:148" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="2:148" x14ac:dyDescent="0.3">
+      <c r="B12" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="11">
-        <v>45065</v>
-      </c>
-      <c r="E12" s="11">
-        <v>45065</v>
-      </c>
-      <c r="F12" s="11">
-        <v>45065</v>
-      </c>
-      <c r="G12" s="26">
-        <v>44988</v>
-      </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="27"/>
+      <c r="C12" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="30">
+        <v>45064</v>
+      </c>
+      <c r="E12" s="30">
+        <v>45064</v>
+      </c>
+      <c r="F12" s="30">
+        <v>45064</v>
+      </c>
+      <c r="G12" s="30">
+        <v>45064</v>
+      </c>
+      <c r="H12" s="30">
+        <v>45064</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="31"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
@@ -3940,39 +3952,39 @@
       <c r="EQ12" s="1"/>
       <c r="ER12" s="1"/>
     </row>
-    <row r="13" spans="2:148" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="2:148" x14ac:dyDescent="0.3">
+      <c r="B13" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="C13" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="30">
         <v>45065</v>
       </c>
-      <c r="E13" s="11">
-        <v>45064</v>
-      </c>
-      <c r="F13" s="11">
-        <v>45064</v>
-      </c>
-      <c r="G13" s="12">
-        <v>45064</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="13"/>
+      <c r="E13" s="30">
+        <v>45065</v>
+      </c>
+      <c r="F13" s="30">
+        <v>45065</v>
+      </c>
+      <c r="G13" s="30">
+        <v>44988</v>
+      </c>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="31"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
@@ -4096,39 +4108,41 @@
       <c r="EQ13" s="1"/>
       <c r="ER13" s="1"/>
     </row>
-    <row r="14" spans="2:148" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="2:148" x14ac:dyDescent="0.3">
+      <c r="B14" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="11">
-        <v>45084</v>
-      </c>
-      <c r="E14" s="11">
-        <v>45084</v>
-      </c>
-      <c r="F14" s="11">
-        <v>45084</v>
-      </c>
-      <c r="G14" s="12">
-        <v>45079</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="13"/>
+      <c r="C14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="30">
+        <v>45023</v>
+      </c>
+      <c r="E14" s="30">
+        <v>45023</v>
+      </c>
+      <c r="F14" s="30">
+        <v>45023</v>
+      </c>
+      <c r="G14" s="30">
+        <v>45023</v>
+      </c>
+      <c r="H14" s="30">
+        <v>45023</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="31"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
@@ -4252,39 +4266,41 @@
       <c r="EQ14" s="1"/>
       <c r="ER14" s="1"/>
     </row>
-    <row r="15" spans="2:148" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="2:148" x14ac:dyDescent="0.3">
+      <c r="B15" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="11">
-        <v>45079</v>
-      </c>
-      <c r="E15" s="11">
-        <v>45079</v>
-      </c>
-      <c r="F15" s="11">
-        <v>45079</v>
-      </c>
-      <c r="G15" s="12">
-        <v>45079</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="13"/>
+      <c r="C15" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="30">
+        <v>45072</v>
+      </c>
+      <c r="E15" s="30">
+        <v>45072</v>
+      </c>
+      <c r="F15" s="30">
+        <v>45072</v>
+      </c>
+      <c r="G15" s="30">
+        <v>45009</v>
+      </c>
+      <c r="H15" s="30">
+        <v>45009</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="31"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
@@ -4408,67 +4424,41 @@
       <c r="EQ15" s="1"/>
       <c r="ER15" s="1"/>
     </row>
-    <row r="16" spans="2:148" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+    <row r="16" spans="2:148" x14ac:dyDescent="0.3">
+      <c r="B16" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="20">
-        <v>45086</v>
-      </c>
-      <c r="E16" s="20">
-        <v>45086</v>
-      </c>
-      <c r="F16" s="20">
-        <v>45086</v>
-      </c>
-      <c r="G16" s="21">
-        <v>45086</v>
-      </c>
-      <c r="H16" s="20">
-        <v>45086</v>
-      </c>
-      <c r="I16" s="20">
-        <v>45086</v>
-      </c>
-      <c r="J16" s="21">
-        <v>45086</v>
-      </c>
-      <c r="K16" s="20">
-        <v>45086</v>
-      </c>
-      <c r="L16" s="20">
-        <v>45086</v>
-      </c>
-      <c r="M16" s="21">
-        <v>45086</v>
-      </c>
-      <c r="N16" s="21">
-        <v>45086</v>
-      </c>
-      <c r="O16" s="20">
-        <v>45086</v>
-      </c>
-      <c r="P16" s="20">
-        <v>45086</v>
-      </c>
-      <c r="Q16" s="21">
-        <v>45086</v>
-      </c>
-      <c r="R16" s="20">
-        <v>45086</v>
-      </c>
-      <c r="S16" s="20">
-        <v>45086</v>
-      </c>
-      <c r="T16" s="21">
-        <v>45086</v>
-      </c>
-      <c r="U16" s="28">
-        <v>45086</v>
-      </c>
+      <c r="C16" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="30">
+        <v>45016</v>
+      </c>
+      <c r="E16" s="30">
+        <v>45016</v>
+      </c>
+      <c r="F16" s="30">
+        <v>45016</v>
+      </c>
+      <c r="G16" s="30">
+        <v>45002</v>
+      </c>
+      <c r="H16" s="30">
+        <v>44995</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="31"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
@@ -4592,61 +4582,61 @@
       <c r="EQ16" s="1"/>
       <c r="ER16" s="1"/>
     </row>
-    <row r="17" spans="2:148" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:148" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="14">
         <v>44974</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="15">
         <v>44981</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="15">
         <v>44988</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="15">
         <v>44995</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="15">
         <v>45002</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="15">
         <v>45009</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="15">
         <v>45016</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="15">
         <v>45023</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="15">
         <v>45030</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="15">
         <v>45037</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="15">
         <v>45044</v>
       </c>
-      <c r="P17" s="23">
+      <c r="P17" s="15">
         <v>45051</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="Q17" s="15">
         <v>45058</v>
       </c>
-      <c r="R17" s="23">
+      <c r="R17" s="15">
         <v>45065</v>
       </c>
-      <c r="S17" s="23">
+      <c r="S17" s="15">
         <v>45072</v>
       </c>
-      <c r="T17" s="23">
+      <c r="T17" s="15">
         <v>45079</v>
       </c>
-      <c r="U17" s="24">
+      <c r="U17" s="16">
         <v>45086</v>
       </c>
       <c r="AA17" s="1"/>
@@ -4772,7 +4762,7 @@
       <c r="EQ17" s="1"/>
       <c r="ER17" s="1"/>
     </row>
-    <row r="18" spans="2:148" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:148" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="8"/>
@@ -4907,7 +4897,7 @@
       <c r="EQ18" s="1"/>
       <c r="ER18" s="1"/>
     </row>
-    <row r="19" spans="2:148" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:148" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="8"/>
@@ -5042,556 +5032,556 @@
       <c r="EQ19" s="1"/>
       <c r="ER19" s="1"/>
     </row>
-    <row r="20" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="406" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="407" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="408" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="409" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="410" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="411" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="412" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="413" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="414" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="415" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="416" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="417" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="418" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="419" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="420" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="421" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="422" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="423" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="424" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="425" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="426" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="427" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="428" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="429" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="430" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="431" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="432" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="433" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="434" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="435" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="436" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="437" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="438" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="439" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="440" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="441" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="442" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="443" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="444" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="445" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="446" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="447" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="448" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="449" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="450" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="451" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="452" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="453" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="454" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="455" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="456" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="457" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="458" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="459" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="460" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="461" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="462" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="463" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="464" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="465" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="466" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="467" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="468" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="469" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="470" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="471" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="472" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="473" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="474" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="475" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="476" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="477" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="478" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="479" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="480" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="481" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="482" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="483" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="484" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="485" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="486" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="487" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="488" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="489" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="490" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="491" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="492" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="493" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="494" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="495" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="496" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="497" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="498" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="499" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="500" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="501" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="502" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="503" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="504" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="505" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="506" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="507" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="508" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="509" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="510" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="511" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="512" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="513" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="514" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="515" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="516" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="517" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="518" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="519" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="520" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="521" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="522" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="523" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="524" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="525" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="526" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="527" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="528" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="529" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="530" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="531" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="532" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="533" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="534" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="535" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="536" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="537" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="538" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="539" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="540" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="541" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="542" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="543" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="544" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="545" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="546" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="547" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="548" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="549" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="550" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="551" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="552" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="553" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="554" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="555" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="556" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="557" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="558" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="559" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="560" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="561" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="562" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="563" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="564" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="565" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="566" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="567" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="568" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="569" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="406" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="407" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="408" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="409" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="410" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="411" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="412" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="413" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="414" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="415" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="416" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="417" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="418" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="419" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="420" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="421" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="422" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="423" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="424" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="425" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="426" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="427" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="428" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="429" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="430" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="431" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="432" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="433" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="434" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="435" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="436" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="437" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="438" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="439" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="440" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="441" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="442" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="443" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="444" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="445" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="446" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="447" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="448" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="449" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="450" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="451" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="452" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="453" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="454" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="455" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="456" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="457" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="458" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="459" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="460" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="461" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="462" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="463" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="464" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="465" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="466" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="467" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="468" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="469" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="470" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="471" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="472" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="473" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="474" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="475" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="476" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="477" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="478" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="479" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="480" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="481" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="482" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="483" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="484" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="485" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="486" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="487" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="488" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="489" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="490" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="491" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="492" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="493" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="494" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="495" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="496" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="497" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="498" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="499" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="500" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="501" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="502" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="503" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="504" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="505" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="506" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="507" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="508" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="509" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="510" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="511" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="512" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="513" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="514" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="515" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="516" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="517" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="518" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="519" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="520" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="521" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="522" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="523" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="524" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="525" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="526" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="527" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="528" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="529" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="530" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="531" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="532" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="533" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="534" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="535" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="536" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="537" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="538" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="539" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="540" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="541" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="542" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="543" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="544" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="545" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="546" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="547" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="548" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="549" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="550" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="551" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="552" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="553" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="554" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="555" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="556" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="557" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="558" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="559" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="560" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="561" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="562" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="563" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="564" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="565" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="566" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="567" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="568" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="569" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="E7:U7"/>
